--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\STIS\Semester 4\UAS\Komputasi Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FDCE4E-5DD2-4C8C-9B26-C145767CBBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F96B1-771E-4F35-A257-25ED51C543A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DDD959CE-B5B4-4E8A-8D1E-BCC940E9ABC3}"/>
   </bookViews>
@@ -2653,55 +2653,55 @@
     <t>TempatTinggal</t>
   </si>
   <si>
-    <t>1.Pembengkakan</t>
-  </si>
-  <si>
-    <t>2.Kemerahan</t>
-  </si>
-  <si>
-    <t>3.Gatal</t>
-  </si>
-  <si>
-    <t>4.Demam</t>
-  </si>
-  <si>
-    <t>5.Sakitkepala</t>
-  </si>
-  <si>
-    <t>6.NyeriOtot</t>
-  </si>
-  <si>
-    <t>7.Kelelahan</t>
-  </si>
-  <si>
-    <t>8.Batuk</t>
-  </si>
-  <si>
-    <t>9.Diare</t>
-  </si>
-  <si>
-    <t>10.Mualdanmuntah</t>
-  </si>
-  <si>
-    <t>11.Sesaknapas</t>
-  </si>
-  <si>
-    <t>12.NyeriSendi</t>
-  </si>
-  <si>
-    <t>13.Pingsan</t>
-  </si>
-  <si>
-    <t>14.ReaksiAnafilaksis</t>
-  </si>
-  <si>
-    <t>15.Kesemutan</t>
-  </si>
-  <si>
-    <t>16.PembengkakanKelenjarGetahBening</t>
-  </si>
-  <si>
-    <t>Waktugejala(jam)</t>
+    <t>Kemerahan</t>
+  </si>
+  <si>
+    <t>Pembengkakan</t>
+  </si>
+  <si>
+    <t>Gatal</t>
+  </si>
+  <si>
+    <t>Demam</t>
+  </si>
+  <si>
+    <t>Sakitkepala</t>
+  </si>
+  <si>
+    <t>NyeriOtot</t>
+  </si>
+  <si>
+    <t>Kelelahan</t>
+  </si>
+  <si>
+    <t>Batuk</t>
+  </si>
+  <si>
+    <t>Diare</t>
+  </si>
+  <si>
+    <t>Mualdanmuntah</t>
+  </si>
+  <si>
+    <t>Sesaknapas</t>
+  </si>
+  <si>
+    <t>NyeriSendi</t>
+  </si>
+  <si>
+    <t>Pingsan</t>
+  </si>
+  <si>
+    <t>ReaksiAnafilaksis</t>
+  </si>
+  <si>
+    <t>Kesemutan</t>
+  </si>
+  <si>
+    <t>PembengkakanKelenjarGetahBening</t>
+  </si>
+  <si>
+    <t>Waktugejala</t>
   </si>
 </sst>
 </file>
@@ -3143,10 +3143,10 @@
         <v>874</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>877</v>
